--- a/excel_AI.xlsx
+++ b/excel_AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/782d93a95a8103fc/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\學習歷程excel\excel-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,6 +45,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>θ</t>
     <phoneticPr fontId="1"/>
@@ -284,7 +285,7 @@
       </rPr>
       <t>（範例）</t>
     </r>
-    <rPh sb="0" eb="9">
+    <rPh sb="0" eb="8">
       <t>ミガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -389,10 +390,6 @@
   </si>
   <si>
     <t>E為誤差e之總和，AI運算便是要讓E找到最小值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>誤差e即為正解數列和輸出層Z數列之平方差</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1103,63 +1100,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,65 +1130,68 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="393">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1495,2153 +1438,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4336,8 +2132,8 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2752725" cy="408317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文字方塊 9"/>
@@ -4373,6 +2169,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4472,7 +2269,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文字方塊 9"/>
@@ -4803,7 +2600,7 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4812,17 +2609,17 @@
       <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="93">
-        <v>1</v>
-      </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113">
+        <v>1</v>
+      </c>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
       <c r="T1" t="s">
         <v>58</v>
       </c>
@@ -4831,10 +2628,10 @@
       <c r="B2" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N6" si="0">K7</f>
         <v>0</v>
@@ -4856,8 +2653,8 @@
       <c r="B3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4877,8 +2674,8 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="87"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4898,8 +2695,8 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4919,8 +2716,8 @@
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="9">
         <f>K11</f>
         <v>1</v>
@@ -4943,10 +2740,10 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="87"/>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="97"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="15">
         <v>0</v>
       </c>
@@ -4959,23 +2756,23 @@
       <c r="N7" s="17">
         <v>0</v>
       </c>
-      <c r="O7" s="112" t="s">
+      <c r="O7" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="113" t="s">
+      <c r="Q7" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="114" t="s">
+      <c r="R7" s="95" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="87"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="18">
         <v>1</v>
       </c>
@@ -4988,22 +2785,22 @@
       <c r="N8" s="36">
         <v>0</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="116" t="s">
+      <c r="P8" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="116" t="s">
+      <c r="Q8" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="117" t="s">
+      <c r="R8" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
       <c r="K9" s="18">
         <v>1</v>
       </c>
@@ -5016,24 +2813,24 @@
       <c r="N9" s="36">
         <v>0</v>
       </c>
-      <c r="O9" s="115" t="s">
+      <c r="O9" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="116" t="s">
+      <c r="P9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="Q9" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="117" t="s">
+      <c r="R9" s="98" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
       <c r="K10" s="18">
         <v>1</v>
       </c>
@@ -5046,24 +2843,24 @@
       <c r="N10" s="36">
         <v>0</v>
       </c>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="116" t="s">
+      <c r="P10" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="117" t="s">
+      <c r="R10" s="98" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="19">
         <v>1</v>
       </c>
@@ -5076,26 +2873,26 @@
       <c r="N11" s="21">
         <v>1</v>
       </c>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="119" t="s">
+      <c r="P11" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="119" t="s">
+      <c r="Q11" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="120" t="s">
+      <c r="R11" s="101" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="101"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="73">
         <v>1</v>
       </c>
@@ -5135,7 +2932,7 @@
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="105" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="89">
@@ -5150,7 +2947,7 @@
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="90">
         <v>2</v>
       </c>
@@ -5169,7 +2966,7 @@
       <c r="E17" s="91"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
-      <c r="I17" s="106"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="14">
         <v>3</v>
       </c>
@@ -5237,7 +3034,7 @@
       <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="105" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3">
@@ -5252,7 +3049,7 @@
       <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="29">
@@ -5268,7 +3065,7 @@
         <v>0.27</v>
       </c>
       <c r="G21" s="72"/>
-      <c r="I21" s="105"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="3">
         <v>2</v>
       </c>
@@ -5281,7 +3078,7 @@
       <c r="N21" s="60"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="24">
         <v>0.25</v>
       </c>
@@ -5295,7 +3092,7 @@
         <v>0.53</v>
       </c>
       <c r="G22" s="72"/>
-      <c r="I22" s="105"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="3">
         <v>3</v>
       </c>
@@ -5308,7 +3105,7 @@
       <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="24">
         <v>0.93</v>
       </c>
@@ -5322,7 +3119,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G23" s="33"/>
-      <c r="I23" s="106"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="3">
         <v>4</v>
       </c>
@@ -5335,7 +3132,7 @@
       <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="24">
         <v>0.82</v>
       </c>
@@ -5349,23 +3146,20 @@
         <v>0.75</v>
       </c>
       <c r="G24" s="33"/>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="108"/>
+      <c r="J24" s="109"/>
       <c r="K24" s="81">
         <f>SUMXMY2(K12:N12,K20:K23)</f>
         <v>1.88816697091025</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
       </c>
       <c r="M24" s="60"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="24">
         <v>0.85</v>
       </c>
@@ -5390,7 +3184,7 @@
       <c r="O25" s="60"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="29">
@@ -5412,7 +3206,7 @@
       <c r="O26" s="67"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="24">
         <v>0.37</v>
       </c>
@@ -5432,7 +3226,7 @@
       <c r="O27" s="67"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="24">
         <v>0.22</v>
       </c>
@@ -5452,7 +3246,7 @@
       <c r="O28" s="67"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="24">
         <v>0.66</v>
       </c>
@@ -5472,7 +3266,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="24">
         <v>0.57999999999999996</v>
       </c>
@@ -5494,7 +3288,7 @@
       <c r="O30" s="67"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="29">
@@ -5516,7 +3310,7 @@
       <c r="O31" s="67"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="24">
         <v>0.6</v>
       </c>
@@ -5535,7 +3329,7 @@
       <c r="O32" s="35"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="24">
         <v>0.95</v>
       </c>
@@ -5554,7 +3348,7 @@
       <c r="O33" s="35"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="103"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="24">
         <v>0.5</v>
       </c>
@@ -5573,7 +3367,7 @@
       <c r="O34" s="35"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="24">
         <v>0.86</v>
       </c>
@@ -5686,7 +3480,7 @@
       <c r="F41" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="121">
+      <c r="G41" s="102">
         <f>SUM(I24:FD24)</f>
         <v>1.88816697091025</v>
       </c>
@@ -5698,44 +3492,44 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="I2:J6"/>
     <mergeCell ref="I7:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="I15:I17"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K2:N6">
-    <cfRule type="cellIs" dxfId="392" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N6">
-    <cfRule type="cellIs" dxfId="390" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="equal">
@@ -5753,9 +3547,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ABW42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5776,258 +3570,258 @@
       <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="93">
-        <v>1</v>
-      </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="93">
+      <c r="J1" s="112"/>
+      <c r="K1" s="113">
+        <v>1</v>
+      </c>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="113">
         <f>K1+1</f>
         <v>2</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="93">
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="113">
         <f t="shared" ref="U1" si="0">P1+1</f>
         <v>3</v>
       </c>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="93">
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="113">
         <f t="shared" ref="Z1" si="1">U1+1</f>
         <v>4</v>
       </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="93">
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="113">
         <f t="shared" ref="AE1" si="2">Z1+1</f>
         <v>5</v>
       </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="93">
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="113">
         <f t="shared" ref="AJ1" si="3">AE1+1</f>
         <v>6</v>
       </c>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="93">
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="115"/>
+      <c r="AO1" s="113">
         <f t="shared" ref="AO1" si="4">AJ1+1</f>
         <v>7</v>
       </c>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="93">
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="113">
         <f t="shared" ref="AT1" si="5">AO1+1</f>
         <v>8</v>
       </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="93">
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="113">
         <f t="shared" ref="AY1" si="6">AT1+1</f>
         <v>9</v>
       </c>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="94"/>
-      <c r="BB1" s="94"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="93">
+      <c r="AZ1" s="114"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="113">
         <f t="shared" ref="BD1" si="7">AY1+1</f>
         <v>10</v>
       </c>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="95"/>
-      <c r="BI1" s="93">
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="113">
         <f t="shared" ref="BI1" si="8">BD1+1</f>
         <v>11</v>
       </c>
-      <c r="BJ1" s="94"/>
-      <c r="BK1" s="94"/>
-      <c r="BL1" s="94"/>
-      <c r="BM1" s="95"/>
-      <c r="BN1" s="93">
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="113">
         <f>BI1+1</f>
         <v>12</v>
       </c>
-      <c r="BO1" s="94"/>
-      <c r="BP1" s="94"/>
-      <c r="BQ1" s="94"/>
-      <c r="BR1" s="95"/>
-      <c r="BS1" s="93">
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="114"/>
+      <c r="BR1" s="115"/>
+      <c r="BS1" s="113">
         <f t="shared" ref="BS1" si="9">BN1+1</f>
         <v>13</v>
       </c>
-      <c r="BT1" s="94"/>
-      <c r="BU1" s="94"/>
-      <c r="BV1" s="94"/>
-      <c r="BW1" s="95"/>
-      <c r="BX1" s="93">
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="115"/>
+      <c r="BX1" s="113">
         <f t="shared" ref="BX1" si="10">BS1+1</f>
         <v>14</v>
       </c>
-      <c r="BY1" s="94"/>
-      <c r="BZ1" s="94"/>
-      <c r="CA1" s="94"/>
-      <c r="CB1" s="95"/>
-      <c r="CC1" s="93">
+      <c r="BY1" s="114"/>
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="115"/>
+      <c r="CC1" s="113">
         <f>BX1+1</f>
         <v>15</v>
       </c>
-      <c r="CD1" s="94"/>
-      <c r="CE1" s="94"/>
-      <c r="CF1" s="94"/>
-      <c r="CG1" s="95"/>
-      <c r="CH1" s="93">
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="115"/>
+      <c r="CH1" s="113">
         <f>CC1+1</f>
         <v>16</v>
       </c>
-      <c r="CI1" s="94"/>
-      <c r="CJ1" s="94"/>
-      <c r="CK1" s="94"/>
-      <c r="CL1" s="95"/>
-      <c r="CM1" s="93">
+      <c r="CI1" s="114"/>
+      <c r="CJ1" s="114"/>
+      <c r="CK1" s="114"/>
+      <c r="CL1" s="115"/>
+      <c r="CM1" s="113">
         <f t="shared" ref="CM1" si="11">CH1+1</f>
         <v>17</v>
       </c>
-      <c r="CN1" s="94"/>
-      <c r="CO1" s="94"/>
-      <c r="CP1" s="94"/>
-      <c r="CQ1" s="95"/>
-      <c r="CR1" s="93">
+      <c r="CN1" s="114"/>
+      <c r="CO1" s="114"/>
+      <c r="CP1" s="114"/>
+      <c r="CQ1" s="115"/>
+      <c r="CR1" s="113">
         <f>CM1+1</f>
         <v>18</v>
       </c>
-      <c r="CS1" s="94"/>
-      <c r="CT1" s="94"/>
-      <c r="CU1" s="94"/>
-      <c r="CV1" s="95"/>
-      <c r="CW1" s="93">
+      <c r="CS1" s="114"/>
+      <c r="CT1" s="114"/>
+      <c r="CU1" s="114"/>
+      <c r="CV1" s="115"/>
+      <c r="CW1" s="113">
         <f>CR1+1</f>
         <v>19</v>
       </c>
-      <c r="CX1" s="94"/>
-      <c r="CY1" s="94"/>
-      <c r="CZ1" s="94"/>
-      <c r="DA1" s="95"/>
-      <c r="DB1" s="93">
+      <c r="CX1" s="114"/>
+      <c r="CY1" s="114"/>
+      <c r="CZ1" s="114"/>
+      <c r="DA1" s="115"/>
+      <c r="DB1" s="113">
         <f>CW1+1</f>
         <v>20</v>
       </c>
-      <c r="DC1" s="94"/>
-      <c r="DD1" s="94"/>
-      <c r="DE1" s="94"/>
-      <c r="DF1" s="95"/>
-      <c r="DG1" s="93">
+      <c r="DC1" s="114"/>
+      <c r="DD1" s="114"/>
+      <c r="DE1" s="114"/>
+      <c r="DF1" s="115"/>
+      <c r="DG1" s="113">
         <f>DB1+1</f>
         <v>21</v>
       </c>
-      <c r="DH1" s="94"/>
-      <c r="DI1" s="94"/>
-      <c r="DJ1" s="94"/>
-      <c r="DK1" s="95"/>
-      <c r="DL1" s="93">
+      <c r="DH1" s="114"/>
+      <c r="DI1" s="114"/>
+      <c r="DJ1" s="114"/>
+      <c r="DK1" s="115"/>
+      <c r="DL1" s="113">
         <f>DG1+1</f>
         <v>22</v>
       </c>
-      <c r="DM1" s="94"/>
-      <c r="DN1" s="94"/>
-      <c r="DO1" s="94"/>
-      <c r="DP1" s="95"/>
-      <c r="DQ1" s="93">
+      <c r="DM1" s="114"/>
+      <c r="DN1" s="114"/>
+      <c r="DO1" s="114"/>
+      <c r="DP1" s="115"/>
+      <c r="DQ1" s="113">
         <f>DL1+1</f>
         <v>23</v>
       </c>
-      <c r="DR1" s="94"/>
-      <c r="DS1" s="94"/>
-      <c r="DT1" s="94"/>
-      <c r="DU1" s="95"/>
-      <c r="DV1" s="93">
+      <c r="DR1" s="114"/>
+      <c r="DS1" s="114"/>
+      <c r="DT1" s="114"/>
+      <c r="DU1" s="115"/>
+      <c r="DV1" s="113">
         <f>DQ1+1</f>
         <v>24</v>
       </c>
-      <c r="DW1" s="94"/>
-      <c r="DX1" s="94"/>
-      <c r="DY1" s="94"/>
-      <c r="DZ1" s="95"/>
-      <c r="EA1" s="93">
+      <c r="DW1" s="114"/>
+      <c r="DX1" s="114"/>
+      <c r="DY1" s="114"/>
+      <c r="DZ1" s="115"/>
+      <c r="EA1" s="113">
         <f t="shared" ref="EA1" si="12">DV1+1</f>
         <v>25</v>
       </c>
-      <c r="EB1" s="94"/>
-      <c r="EC1" s="94"/>
-      <c r="ED1" s="94"/>
-      <c r="EE1" s="95"/>
-      <c r="EF1" s="93">
+      <c r="EB1" s="114"/>
+      <c r="EC1" s="114"/>
+      <c r="ED1" s="114"/>
+      <c r="EE1" s="115"/>
+      <c r="EF1" s="113">
         <f t="shared" ref="EF1" si="13">EA1+1</f>
         <v>26</v>
       </c>
-      <c r="EG1" s="94"/>
-      <c r="EH1" s="94"/>
-      <c r="EI1" s="94"/>
-      <c r="EJ1" s="95"/>
-      <c r="EK1" s="93">
+      <c r="EG1" s="114"/>
+      <c r="EH1" s="114"/>
+      <c r="EI1" s="114"/>
+      <c r="EJ1" s="115"/>
+      <c r="EK1" s="113">
         <f t="shared" ref="EK1" si="14">EF1+1</f>
         <v>27</v>
       </c>
-      <c r="EL1" s="94"/>
-      <c r="EM1" s="94"/>
-      <c r="EN1" s="94"/>
-      <c r="EO1" s="95"/>
-      <c r="EP1" s="93">
+      <c r="EL1" s="114"/>
+      <c r="EM1" s="114"/>
+      <c r="EN1" s="114"/>
+      <c r="EO1" s="115"/>
+      <c r="EP1" s="113">
         <f t="shared" ref="EP1" si="15">EK1+1</f>
         <v>28</v>
       </c>
-      <c r="EQ1" s="94"/>
-      <c r="ER1" s="94"/>
-      <c r="ES1" s="94"/>
-      <c r="ET1" s="95"/>
-      <c r="EU1" s="93">
+      <c r="EQ1" s="114"/>
+      <c r="ER1" s="114"/>
+      <c r="ES1" s="114"/>
+      <c r="ET1" s="115"/>
+      <c r="EU1" s="113">
         <f t="shared" ref="EU1" si="16">EP1+1</f>
         <v>29</v>
       </c>
-      <c r="EV1" s="94"/>
-      <c r="EW1" s="94"/>
-      <c r="EX1" s="94"/>
-      <c r="EY1" s="95"/>
-      <c r="EZ1" s="93">
+      <c r="EV1" s="114"/>
+      <c r="EW1" s="114"/>
+      <c r="EX1" s="114"/>
+      <c r="EY1" s="115"/>
+      <c r="EZ1" s="113">
         <f t="shared" ref="EZ1" si="17">EU1+1</f>
         <v>30</v>
       </c>
-      <c r="FA1" s="94"/>
-      <c r="FB1" s="94"/>
-      <c r="FC1" s="94"/>
-      <c r="FD1" s="95"/>
+      <c r="FA1" s="114"/>
+      <c r="FB1" s="114"/>
+      <c r="FC1" s="114"/>
+      <c r="FD1" s="115"/>
     </row>
     <row r="2" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="4">
         <f t="shared" ref="K2:AI2" si="18">K7</f>
         <v>0</v>
@@ -6630,8 +4424,8 @@
       </c>
     </row>
     <row r="3" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="7">
         <f t="shared" ref="K3:N4" si="28">K8</f>
         <v>1</v>
@@ -7146,8 +4940,8 @@
     <row r="4" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="7">
         <f t="shared" si="28"/>
         <v>1</v>
@@ -7653,8 +5447,8 @@
     <row r="5" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="7">
         <f t="shared" ref="K5" si="70">K10</f>
         <v>1</v>
@@ -8259,8 +6053,8 @@
     <row r="6" spans="2:261" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="9">
         <f>K11</f>
         <v>1</v>
@@ -8865,10 +6659,10 @@
     <row r="7" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="97"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="15">
         <v>0</v>
       </c>
@@ -9263,8 +7057,8 @@
     <row r="8" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="18">
         <v>1</v>
       </c>
@@ -9657,8 +7451,8 @@
       <c r="FD8" s="2"/>
     </row>
     <row r="9" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
       <c r="K9" s="18">
         <v>1</v>
       </c>
@@ -10051,8 +7845,8 @@
       <c r="FD9" s="2"/>
     </row>
     <row r="10" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
       <c r="K10" s="18">
         <v>1</v>
       </c>
@@ -10452,8 +8246,8 @@
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="19">
         <v>1</v>
       </c>
@@ -10864,10 +8658,10 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="101"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="73">
         <v>1</v>
       </c>
@@ -11723,7 +9517,7 @@
       <c r="JA14" s="47"/>
     </row>
     <row r="15" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="29">
@@ -11739,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="72"/>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="105" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="62">
@@ -12088,7 +9882,7 @@
       <c r="JA15" s="47"/>
     </row>
     <row r="16" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="24">
         <v>0</v>
       </c>
@@ -12102,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="63">
         <v>2</v>
       </c>
@@ -12449,7 +10243,7 @@
       <c r="JA16" s="47"/>
     </row>
     <row r="17" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="24">
         <v>0</v>
       </c>
@@ -12463,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="I17" s="106"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="14">
         <v>3</v>
       </c>
@@ -12810,7 +10604,7 @@
       <c r="JA17" s="47"/>
     </row>
     <row r="18" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="103"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="24">
         <v>0</v>
       </c>
@@ -13079,7 +10873,7 @@
       <c r="JA18" s="47"/>
     </row>
     <row r="19" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="24">
         <v>0</v>
       </c>
@@ -13410,7 +11204,7 @@
       <c r="JA19" s="47"/>
     </row>
     <row r="20" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="29">
@@ -13426,7 +11220,7 @@
         <v>0.52052525645484882</v>
       </c>
       <c r="G20" s="72"/>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="105" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3">
@@ -13775,7 +11569,7 @@
       <c r="JA20" s="47"/>
     </row>
     <row r="21" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="24">
         <v>0.21492827974101786</v>
       </c>
@@ -13789,7 +11583,7 @@
         <v>2.0329100049058124</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="I21" s="105"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="3">
         <v>2</v>
       </c>
@@ -14136,7 +11930,7 @@
       <c r="JA21" s="47"/>
     </row>
     <row r="22" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="24">
         <v>0.52154484098435394</v>
       </c>
@@ -14150,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="I22" s="105"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="3">
         <v>3</v>
       </c>
@@ -14497,7 +12291,7 @@
       <c r="JA22" s="47"/>
     </row>
     <row r="23" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="24">
         <v>0</v>
       </c>
@@ -14511,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="33"/>
-      <c r="I23" s="106"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="3">
         <v>4</v>
       </c>
@@ -14858,7 +12652,7 @@
       <c r="JA23" s="47"/>
     </row>
     <row r="24" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
@@ -14874,10 +12668,10 @@
       <c r="G24" s="31">
         <v>5.8116964171457868</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="108"/>
+      <c r="J24" s="109"/>
       <c r="K24" s="81">
         <f>SUMXMY2(K12:N12,K20:K23)</f>
         <v>6.0194062898258106E-2</v>
@@ -15191,7 +12985,7 @@
       <c r="JA24" s="47"/>
     </row>
     <row r="25" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="29">
@@ -15462,7 +13256,7 @@
       <c r="JA25" s="47"/>
     </row>
     <row r="26" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="24">
         <v>0</v>
       </c>
@@ -15698,7 +13492,7 @@
       <c r="JA26" s="47"/>
     </row>
     <row r="27" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="24">
         <v>0</v>
       </c>
@@ -15934,7 +13728,7 @@
       <c r="JA27" s="47"/>
     </row>
     <row r="28" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="24">
         <v>0</v>
       </c>
@@ -16170,7 +13964,7 @@
       <c r="JA28" s="47"/>
     </row>
     <row r="29" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="24">
         <v>0</v>
       </c>
@@ -17636,10 +15430,10 @@
       <c r="F37" s="47"/>
       <c r="G37" s="48"/>
       <c r="H37" s="47"/>
-      <c r="I37" s="100" t="s">
+      <c r="I37" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="101"/>
+      <c r="J37" s="112"/>
       <c r="K37" s="71" t="str">
         <f ca="1">OFFSET($C$12,0,K12+2*L12+3*M12+4*N12)</f>
         <v>A</v>
@@ -17991,10 +15785,10 @@
       <c r="F38" s="47"/>
       <c r="G38" s="48"/>
       <c r="H38" s="47"/>
-      <c r="I38" s="100" t="s">
+      <c r="I38" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="101"/>
+      <c r="J38" s="112"/>
       <c r="K38" s="71" t="str">
         <f ca="1">OFFSET($C$12,0,MATCH(MAX(K20:K23),K20:K23,0))</f>
         <v>A</v>
@@ -18346,10 +16140,10 @@
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="47"/>
-      <c r="I39" s="100" t="s">
+      <c r="I39" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="101"/>
+      <c r="J39" s="112"/>
       <c r="K39" s="71" t="str">
         <f ca="1">IF(K37=K38,"〇","×")</f>
         <v>〇</v>
@@ -20951,15 +18745,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I7:J11"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="EU1:EY1"/>
+    <mergeCell ref="EZ1:FD1"/>
+    <mergeCell ref="EP1:ET1"/>
+    <mergeCell ref="DV1:DZ1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="EK1:EO1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CC1:CG1"/>
+    <mergeCell ref="CH1:CL1"/>
+    <mergeCell ref="CM1:CQ1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="BS1:BW1"/>
     <mergeCell ref="EA1:EE1"/>
     <mergeCell ref="EF1:EJ1"/>
@@ -20976,36 +18779,27 @@
     <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CC1:CG1"/>
-    <mergeCell ref="CH1:CL1"/>
-    <mergeCell ref="CM1:CQ1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="EK1:EO1"/>
-    <mergeCell ref="EP1:ET1"/>
-    <mergeCell ref="DV1:DZ1"/>
-    <mergeCell ref="BD1:BH1"/>
-    <mergeCell ref="BI1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="EU1:EY1"/>
-    <mergeCell ref="EZ1:FD1"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J6"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I7:J11"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K2:N6">
-    <cfRule type="cellIs" dxfId="389" priority="2972" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2972" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="2974" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2974" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:AI6 DQ2:EE6">
-    <cfRule type="cellIs" dxfId="387" priority="2970" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2970" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2971" operator="equal">
@@ -21013,15 +18807,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:AW6">
-    <cfRule type="cellIs" dxfId="386" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="981" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="982" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="982" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:AX6">
-    <cfRule type="cellIs" dxfId="384" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="979" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="980" operator="equal">
@@ -21029,23 +18823,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:S6">
-    <cfRule type="cellIs" dxfId="383" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1017" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="1018" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1018" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AM6">
-    <cfRule type="cellIs" dxfId="381" priority="1009" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1009" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1010" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AN6">
-    <cfRule type="cellIs" dxfId="379" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1007" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="1008" operator="equal">
@@ -21053,15 +18847,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X6">
-    <cfRule type="cellIs" dxfId="378" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1005" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1006" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Y6">
-    <cfRule type="cellIs" dxfId="376" priority="1003" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1003" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="1004" operator="equal">
@@ -21069,23 +18863,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AC6">
-    <cfRule type="cellIs" dxfId="375" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1001" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1002" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AH6">
-    <cfRule type="cellIs" dxfId="373" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="993" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="994" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AI6">
-    <cfRule type="cellIs" dxfId="371" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="991" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="992" operator="equal">
@@ -21093,15 +18887,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AR6">
-    <cfRule type="cellIs" dxfId="370" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="989" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="990" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AS6">
-    <cfRule type="cellIs" dxfId="368" priority="987" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="987" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="988" operator="equal">
@@ -21109,15 +18903,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:BB6">
-    <cfRule type="cellIs" dxfId="367" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="977" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="978" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:BC6">
-    <cfRule type="cellIs" dxfId="365" priority="975" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="975" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="976" operator="equal">
@@ -21125,15 +18919,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DL2:DO6">
-    <cfRule type="cellIs" dxfId="364" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="965" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="966" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DL2:DP6">
-    <cfRule type="cellIs" dxfId="362" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="963" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="964" operator="equal">
@@ -21141,15 +18935,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU2:EX6">
-    <cfRule type="cellIs" dxfId="361" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="925" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="926" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU2:EY6">
-    <cfRule type="cellIs" dxfId="359" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="923" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="924" operator="equal">
@@ -21157,23 +18951,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ2:DT6">
-    <cfRule type="cellIs" dxfId="358" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="961" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="962" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EF2:EI6">
-    <cfRule type="cellIs" dxfId="356" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="957" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="958" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EF2:EJ6">
-    <cfRule type="cellIs" dxfId="354" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="955" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="956" operator="equal">
@@ -21181,15 +18975,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EK2:EN6">
-    <cfRule type="cellIs" dxfId="353" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="953" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="954" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EK2:EO6">
-    <cfRule type="cellIs" dxfId="351" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="951" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="952" operator="equal">
@@ -21197,15 +18991,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DV2:DY6">
-    <cfRule type="cellIs" dxfId="350" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="941" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="942" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DV2:DZ6">
-    <cfRule type="cellIs" dxfId="348" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="939" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="940" operator="equal">
@@ -21213,15 +19007,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA2:ED6">
-    <cfRule type="cellIs" dxfId="347" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="937" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="938" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA2:EE6">
-    <cfRule type="cellIs" dxfId="345" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="935" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="936" operator="equal">
@@ -21229,15 +19023,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP2:ES6">
-    <cfRule type="cellIs" dxfId="344" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="933" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="934" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP2:ET6">
-    <cfRule type="cellIs" dxfId="342" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="931" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="932" operator="equal">
@@ -21245,15 +19039,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EZ2:FC6">
-    <cfRule type="cellIs" dxfId="341" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="921" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="922" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EZ2:FD6">
-    <cfRule type="cellIs" dxfId="339" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="919" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="920" operator="equal">
@@ -21261,15 +19055,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH2:CK6">
-    <cfRule type="cellIs" dxfId="336" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="833" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="834" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH2:CL6">
-    <cfRule type="cellIs" dxfId="334" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="831" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="832" operator="equal">
@@ -21277,15 +19071,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB2:DE6">
-    <cfRule type="cellIs" dxfId="333" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="765" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="766" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB2:DF6">
-    <cfRule type="cellIs" dxfId="331" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="763" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="764" operator="equal">
@@ -21293,15 +19087,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI2:BL6">
-    <cfRule type="cellIs" dxfId="327" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="805" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="806" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI2:BM6">
-    <cfRule type="cellIs" dxfId="325" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="804" operator="equal">
@@ -21309,15 +19103,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN2:BQ6">
-    <cfRule type="cellIs" dxfId="324" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="801" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="802" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN2:BR6">
-    <cfRule type="cellIs" dxfId="322" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="799" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="800" operator="equal">
@@ -21325,15 +19119,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX2:CA6">
-    <cfRule type="cellIs" dxfId="321" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="845" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="846" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX2:CB6">
-    <cfRule type="cellIs" dxfId="319" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="843" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="844" operator="equal">
@@ -21341,15 +19135,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC2:CF6">
-    <cfRule type="cellIs" dxfId="318" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="841" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="842" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC2:CG6">
-    <cfRule type="cellIs" dxfId="316" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="839" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="840" operator="equal">
@@ -21357,15 +19151,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR2:CU6">
-    <cfRule type="cellIs" dxfId="309" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="821" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="822" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR2:CV6">
-    <cfRule type="cellIs" dxfId="307" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="819" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="820" operator="equal">
@@ -21373,15 +19167,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW2:CZ6">
-    <cfRule type="cellIs" dxfId="306" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="817" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="818" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW2:DA6">
-    <cfRule type="cellIs" dxfId="304" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="815" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="816" operator="equal">
@@ -21389,15 +19183,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BG6">
-    <cfRule type="cellIs" dxfId="303" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="809" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="810" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BH6">
-    <cfRule type="cellIs" dxfId="301" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="807" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="808" operator="equal">
@@ -21405,15 +19199,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS2:BV6">
-    <cfRule type="cellIs" dxfId="297" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="797" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="798" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS2:BW6">
-    <cfRule type="cellIs" dxfId="295" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="795" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="796" operator="equal">
@@ -21421,15 +19215,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM2:CP6">
-    <cfRule type="cellIs" dxfId="294" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="781" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="782" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM2:CQ6">
-    <cfRule type="cellIs" dxfId="292" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="779" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="780" operator="equal">
@@ -21437,15 +19231,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG2:DJ6">
-    <cfRule type="cellIs" dxfId="288" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="761" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="762" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG2:DK6">
-    <cfRule type="cellIs" dxfId="286" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="759" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="760" operator="equal">

--- a/excel_AI.xlsx
+++ b/excel_AI.xlsx
@@ -45,7 +45,6 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,10 +388,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>E為誤差e之總和，AI運算便是要讓E找到最小值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AI是以梯度下降法找最小值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -403,6 +398,9 @@
   <si>
     <t>"學習後" 工作表即為規劃求解學習完的結果</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E為誤差e之總和，AI運算便是要讓E找到最小值</t>
   </si>
 </sst>
 </file>
@@ -820,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1128,12 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,6 +1190,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2600,7 +2610,7 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2609,29 +2619,34 @@
       <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113">
-        <v>1</v>
-      </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115">
+        <v>1</v>
+      </c>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
       <c r="T1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="I2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N6" si="0">K7</f>
         <v>0</v>
@@ -2650,11 +2665,16 @@
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
       <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2674,8 +2694,8 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="87"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2695,8 +2715,8 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2716,8 +2736,8 @@
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="9">
         <f>K11</f>
         <v>1</v>
@@ -2734,16 +2754,19 @@
         <f>N11</f>
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="124" t="s">
         <v>37</v>
       </c>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="87"/>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="117"/>
+      <c r="J7" s="119"/>
       <c r="K7" s="15">
         <v>0</v>
       </c>
@@ -2771,8 +2794,8 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="87"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="18">
         <v>1</v>
       </c>
@@ -2799,8 +2822,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="18">
         <v>1</v>
       </c>
@@ -2829,8 +2852,8 @@
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="18">
         <v>1</v>
       </c>
@@ -2859,8 +2882,8 @@
     <row r="11" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="19">
         <v>1</v>
       </c>
@@ -2889,10 +2912,10 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="112"/>
+      <c r="J12" s="114"/>
       <c r="K12" s="73">
         <v>1</v>
       </c>
@@ -2932,7 +2955,7 @@
       <c r="N14" s="41"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="107" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="89">
@@ -2947,7 +2970,7 @@
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="106"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="90">
         <v>2</v>
       </c>
@@ -2966,7 +2989,7 @@
       <c r="E17" s="91"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
-      <c r="I17" s="107"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="14">
         <v>3</v>
       </c>
@@ -3034,7 +3057,7 @@
       <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="107" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3">
@@ -3049,7 +3072,7 @@
       <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="29">
@@ -3065,7 +3088,7 @@
         <v>0.27</v>
       </c>
       <c r="G21" s="72"/>
-      <c r="I21" s="106"/>
+      <c r="I21" s="108"/>
       <c r="J21" s="3">
         <v>2</v>
       </c>
@@ -3078,7 +3101,7 @@
       <c r="N21" s="60"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="24">
         <v>0.25</v>
       </c>
@@ -3092,7 +3115,7 @@
         <v>0.53</v>
       </c>
       <c r="G22" s="72"/>
-      <c r="I22" s="106"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="3">
         <v>3</v>
       </c>
@@ -3105,7 +3128,7 @@
       <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="24">
         <v>0.93</v>
       </c>
@@ -3119,7 +3142,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G23" s="33"/>
-      <c r="I23" s="107"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="3">
         <v>4</v>
       </c>
@@ -3132,7 +3155,7 @@
       <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="24">
         <v>0.82</v>
       </c>
@@ -3146,10 +3169,10 @@
         <v>0.75</v>
       </c>
       <c r="G24" s="33"/>
-      <c r="I24" s="108" t="s">
+      <c r="I24" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="109"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="81">
         <f>SUMXMY2(K12:N12,K20:K23)</f>
         <v>1.88816697091025</v>
@@ -3159,7 +3182,7 @@
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="24">
         <v>0.85</v>
       </c>
@@ -3184,7 +3207,7 @@
       <c r="O25" s="60"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="29">
@@ -3206,7 +3229,7 @@
       <c r="O26" s="67"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="24">
         <v>0.37</v>
       </c>
@@ -3226,7 +3249,7 @@
       <c r="O27" s="67"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="24">
         <v>0.22</v>
       </c>
@@ -3246,7 +3269,7 @@
       <c r="O28" s="67"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="24">
         <v>0.66</v>
       </c>
@@ -3266,7 +3289,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="24">
         <v>0.57999999999999996</v>
       </c>
@@ -3288,7 +3311,7 @@
       <c r="O30" s="67"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="105" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="29">
@@ -3310,7 +3333,7 @@
       <c r="O31" s="67"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="104"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="24">
         <v>0.6</v>
       </c>
@@ -3329,7 +3352,7 @@
       <c r="O32" s="35"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="104"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="24">
         <v>0.95</v>
       </c>
@@ -3348,7 +3371,7 @@
       <c r="O33" s="35"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="24">
         <v>0.5</v>
       </c>
@@ -3367,7 +3390,7 @@
       <c r="O34" s="35"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="110"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="24">
         <v>0.86</v>
       </c>
@@ -3486,38 +3509,63 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
+      <c r="F42" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>61</v>
-      </c>
+      <c r="F43" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
+      <c r="F44" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>63</v>
-      </c>
+      <c r="F45" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="I2:J6"/>
     <mergeCell ref="I7:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="F42:K42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K2:N6">
@@ -3570,258 +3618,258 @@
       <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113">
-        <v>1</v>
-      </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="113">
+      <c r="J1" s="114"/>
+      <c r="K1" s="115">
+        <v>1</v>
+      </c>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="115">
         <f>K1+1</f>
         <v>2</v>
       </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="113">
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="115">
         <f t="shared" ref="U1" si="0">P1+1</f>
         <v>3</v>
       </c>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="113">
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="115">
         <f t="shared" ref="Z1" si="1">U1+1</f>
         <v>4</v>
       </c>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="113">
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="115">
         <f t="shared" ref="AE1" si="2">Z1+1</f>
         <v>5</v>
       </c>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="113">
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="115">
         <f t="shared" ref="AJ1" si="3">AE1+1</f>
         <v>6</v>
       </c>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="115"/>
-      <c r="AO1" s="113">
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+      <c r="AM1" s="116"/>
+      <c r="AN1" s="117"/>
+      <c r="AO1" s="115">
         <f t="shared" ref="AO1" si="4">AJ1+1</f>
         <v>7</v>
       </c>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="113">
+      <c r="AP1" s="116"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="117"/>
+      <c r="AT1" s="115">
         <f t="shared" ref="AT1" si="5">AO1+1</f>
         <v>8</v>
       </c>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="113">
+      <c r="AU1" s="116"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="116"/>
+      <c r="AX1" s="117"/>
+      <c r="AY1" s="115">
         <f t="shared" ref="AY1" si="6">AT1+1</f>
         <v>9</v>
       </c>
-      <c r="AZ1" s="114"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
-      <c r="BC1" s="115"/>
-      <c r="BD1" s="113">
+      <c r="AZ1" s="116"/>
+      <c r="BA1" s="116"/>
+      <c r="BB1" s="116"/>
+      <c r="BC1" s="117"/>
+      <c r="BD1" s="115">
         <f t="shared" ref="BD1" si="7">AY1+1</f>
         <v>10</v>
       </c>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="114"/>
-      <c r="BH1" s="115"/>
-      <c r="BI1" s="113">
+      <c r="BE1" s="116"/>
+      <c r="BF1" s="116"/>
+      <c r="BG1" s="116"/>
+      <c r="BH1" s="117"/>
+      <c r="BI1" s="115">
         <f t="shared" ref="BI1" si="8">BD1+1</f>
         <v>11</v>
       </c>
-      <c r="BJ1" s="114"/>
-      <c r="BK1" s="114"/>
-      <c r="BL1" s="114"/>
-      <c r="BM1" s="115"/>
-      <c r="BN1" s="113">
+      <c r="BJ1" s="116"/>
+      <c r="BK1" s="116"/>
+      <c r="BL1" s="116"/>
+      <c r="BM1" s="117"/>
+      <c r="BN1" s="115">
         <f>BI1+1</f>
         <v>12</v>
       </c>
-      <c r="BO1" s="114"/>
-      <c r="BP1" s="114"/>
-      <c r="BQ1" s="114"/>
-      <c r="BR1" s="115"/>
-      <c r="BS1" s="113">
+      <c r="BO1" s="116"/>
+      <c r="BP1" s="116"/>
+      <c r="BQ1" s="116"/>
+      <c r="BR1" s="117"/>
+      <c r="BS1" s="115">
         <f t="shared" ref="BS1" si="9">BN1+1</f>
         <v>13</v>
       </c>
-      <c r="BT1" s="114"/>
-      <c r="BU1" s="114"/>
-      <c r="BV1" s="114"/>
-      <c r="BW1" s="115"/>
-      <c r="BX1" s="113">
+      <c r="BT1" s="116"/>
+      <c r="BU1" s="116"/>
+      <c r="BV1" s="116"/>
+      <c r="BW1" s="117"/>
+      <c r="BX1" s="115">
         <f t="shared" ref="BX1" si="10">BS1+1</f>
         <v>14</v>
       </c>
-      <c r="BY1" s="114"/>
-      <c r="BZ1" s="114"/>
-      <c r="CA1" s="114"/>
-      <c r="CB1" s="115"/>
-      <c r="CC1" s="113">
+      <c r="BY1" s="116"/>
+      <c r="BZ1" s="116"/>
+      <c r="CA1" s="116"/>
+      <c r="CB1" s="117"/>
+      <c r="CC1" s="115">
         <f>BX1+1</f>
         <v>15</v>
       </c>
-      <c r="CD1" s="114"/>
-      <c r="CE1" s="114"/>
-      <c r="CF1" s="114"/>
-      <c r="CG1" s="115"/>
-      <c r="CH1" s="113">
+      <c r="CD1" s="116"/>
+      <c r="CE1" s="116"/>
+      <c r="CF1" s="116"/>
+      <c r="CG1" s="117"/>
+      <c r="CH1" s="115">
         <f>CC1+1</f>
         <v>16</v>
       </c>
-      <c r="CI1" s="114"/>
-      <c r="CJ1" s="114"/>
-      <c r="CK1" s="114"/>
-      <c r="CL1" s="115"/>
-      <c r="CM1" s="113">
+      <c r="CI1" s="116"/>
+      <c r="CJ1" s="116"/>
+      <c r="CK1" s="116"/>
+      <c r="CL1" s="117"/>
+      <c r="CM1" s="115">
         <f t="shared" ref="CM1" si="11">CH1+1</f>
         <v>17</v>
       </c>
-      <c r="CN1" s="114"/>
-      <c r="CO1" s="114"/>
-      <c r="CP1" s="114"/>
-      <c r="CQ1" s="115"/>
-      <c r="CR1" s="113">
+      <c r="CN1" s="116"/>
+      <c r="CO1" s="116"/>
+      <c r="CP1" s="116"/>
+      <c r="CQ1" s="117"/>
+      <c r="CR1" s="115">
         <f>CM1+1</f>
         <v>18</v>
       </c>
-      <c r="CS1" s="114"/>
-      <c r="CT1" s="114"/>
-      <c r="CU1" s="114"/>
-      <c r="CV1" s="115"/>
-      <c r="CW1" s="113">
+      <c r="CS1" s="116"/>
+      <c r="CT1" s="116"/>
+      <c r="CU1" s="116"/>
+      <c r="CV1" s="117"/>
+      <c r="CW1" s="115">
         <f>CR1+1</f>
         <v>19</v>
       </c>
-      <c r="CX1" s="114"/>
-      <c r="CY1" s="114"/>
-      <c r="CZ1" s="114"/>
-      <c r="DA1" s="115"/>
-      <c r="DB1" s="113">
+      <c r="CX1" s="116"/>
+      <c r="CY1" s="116"/>
+      <c r="CZ1" s="116"/>
+      <c r="DA1" s="117"/>
+      <c r="DB1" s="115">
         <f>CW1+1</f>
         <v>20</v>
       </c>
-      <c r="DC1" s="114"/>
-      <c r="DD1" s="114"/>
-      <c r="DE1" s="114"/>
-      <c r="DF1" s="115"/>
-      <c r="DG1" s="113">
+      <c r="DC1" s="116"/>
+      <c r="DD1" s="116"/>
+      <c r="DE1" s="116"/>
+      <c r="DF1" s="117"/>
+      <c r="DG1" s="115">
         <f>DB1+1</f>
         <v>21</v>
       </c>
-      <c r="DH1" s="114"/>
-      <c r="DI1" s="114"/>
-      <c r="DJ1" s="114"/>
-      <c r="DK1" s="115"/>
-      <c r="DL1" s="113">
+      <c r="DH1" s="116"/>
+      <c r="DI1" s="116"/>
+      <c r="DJ1" s="116"/>
+      <c r="DK1" s="117"/>
+      <c r="DL1" s="115">
         <f>DG1+1</f>
         <v>22</v>
       </c>
-      <c r="DM1" s="114"/>
-      <c r="DN1" s="114"/>
-      <c r="DO1" s="114"/>
-      <c r="DP1" s="115"/>
-      <c r="DQ1" s="113">
+      <c r="DM1" s="116"/>
+      <c r="DN1" s="116"/>
+      <c r="DO1" s="116"/>
+      <c r="DP1" s="117"/>
+      <c r="DQ1" s="115">
         <f>DL1+1</f>
         <v>23</v>
       </c>
-      <c r="DR1" s="114"/>
-      <c r="DS1" s="114"/>
-      <c r="DT1" s="114"/>
-      <c r="DU1" s="115"/>
-      <c r="DV1" s="113">
+      <c r="DR1" s="116"/>
+      <c r="DS1" s="116"/>
+      <c r="DT1" s="116"/>
+      <c r="DU1" s="117"/>
+      <c r="DV1" s="115">
         <f>DQ1+1</f>
         <v>24</v>
       </c>
-      <c r="DW1" s="114"/>
-      <c r="DX1" s="114"/>
-      <c r="DY1" s="114"/>
-      <c r="DZ1" s="115"/>
-      <c r="EA1" s="113">
+      <c r="DW1" s="116"/>
+      <c r="DX1" s="116"/>
+      <c r="DY1" s="116"/>
+      <c r="DZ1" s="117"/>
+      <c r="EA1" s="115">
         <f t="shared" ref="EA1" si="12">DV1+1</f>
         <v>25</v>
       </c>
-      <c r="EB1" s="114"/>
-      <c r="EC1" s="114"/>
-      <c r="ED1" s="114"/>
-      <c r="EE1" s="115"/>
-      <c r="EF1" s="113">
+      <c r="EB1" s="116"/>
+      <c r="EC1" s="116"/>
+      <c r="ED1" s="116"/>
+      <c r="EE1" s="117"/>
+      <c r="EF1" s="115">
         <f t="shared" ref="EF1" si="13">EA1+1</f>
         <v>26</v>
       </c>
-      <c r="EG1" s="114"/>
-      <c r="EH1" s="114"/>
-      <c r="EI1" s="114"/>
-      <c r="EJ1" s="115"/>
-      <c r="EK1" s="113">
+      <c r="EG1" s="116"/>
+      <c r="EH1" s="116"/>
+      <c r="EI1" s="116"/>
+      <c r="EJ1" s="117"/>
+      <c r="EK1" s="115">
         <f t="shared" ref="EK1" si="14">EF1+1</f>
         <v>27</v>
       </c>
-      <c r="EL1" s="114"/>
-      <c r="EM1" s="114"/>
-      <c r="EN1" s="114"/>
-      <c r="EO1" s="115"/>
-      <c r="EP1" s="113">
+      <c r="EL1" s="116"/>
+      <c r="EM1" s="116"/>
+      <c r="EN1" s="116"/>
+      <c r="EO1" s="117"/>
+      <c r="EP1" s="115">
         <f t="shared" ref="EP1" si="15">EK1+1</f>
         <v>28</v>
       </c>
-      <c r="EQ1" s="114"/>
-      <c r="ER1" s="114"/>
-      <c r="ES1" s="114"/>
-      <c r="ET1" s="115"/>
-      <c r="EU1" s="113">
+      <c r="EQ1" s="116"/>
+      <c r="ER1" s="116"/>
+      <c r="ES1" s="116"/>
+      <c r="ET1" s="117"/>
+      <c r="EU1" s="115">
         <f t="shared" ref="EU1" si="16">EP1+1</f>
         <v>29</v>
       </c>
-      <c r="EV1" s="114"/>
-      <c r="EW1" s="114"/>
-      <c r="EX1" s="114"/>
-      <c r="EY1" s="115"/>
-      <c r="EZ1" s="113">
+      <c r="EV1" s="116"/>
+      <c r="EW1" s="116"/>
+      <c r="EX1" s="116"/>
+      <c r="EY1" s="117"/>
+      <c r="EZ1" s="115">
         <f t="shared" ref="EZ1" si="17">EU1+1</f>
         <v>30</v>
       </c>
-      <c r="FA1" s="114"/>
-      <c r="FB1" s="114"/>
-      <c r="FC1" s="114"/>
-      <c r="FD1" s="115"/>
+      <c r="FA1" s="116"/>
+      <c r="FB1" s="116"/>
+      <c r="FC1" s="116"/>
+      <c r="FD1" s="117"/>
     </row>
     <row r="2" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="119"/>
       <c r="K2" s="4">
         <f t="shared" ref="K2:AI2" si="18">K7</f>
         <v>0</v>
@@ -4424,8 +4472,8 @@
       </c>
     </row>
     <row r="3" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
       <c r="K3" s="7">
         <f t="shared" ref="K3:N4" si="28">K8</f>
         <v>1</v>
@@ -4940,8 +4988,8 @@
     <row r="4" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="7">
         <f t="shared" si="28"/>
         <v>1</v>
@@ -5447,8 +5495,8 @@
     <row r="5" spans="2:261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
       <c r="K5" s="7">
         <f t="shared" ref="K5" si="70">K10</f>
         <v>1</v>
@@ -6053,8 +6101,8 @@
     <row r="6" spans="2:261" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="9">
         <f>K11</f>
         <v>1</v>
@@ -6659,10 +6707,10 @@
     <row r="7" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="117"/>
+      <c r="J7" s="119"/>
       <c r="K7" s="15">
         <v>0</v>
       </c>
@@ -7057,8 +7105,8 @@
     <row r="8" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121"/>
       <c r="K8" s="18">
         <v>1</v>
       </c>
@@ -7451,8 +7499,8 @@
       <c r="FD8" s="2"/>
     </row>
     <row r="9" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="18">
         <v>1</v>
       </c>
@@ -7845,8 +7893,8 @@
       <c r="FD9" s="2"/>
     </row>
     <row r="10" spans="2:261" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
       <c r="K10" s="18">
         <v>1</v>
       </c>
@@ -8246,8 +8294,8 @@
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="19">
         <v>1</v>
       </c>
@@ -8658,10 +8706,10 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="112"/>
+      <c r="J12" s="114"/>
       <c r="K12" s="73">
         <v>1</v>
       </c>
@@ -9517,7 +9565,7 @@
       <c r="JA14" s="47"/>
     </row>
     <row r="15" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="29">
@@ -9533,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="72"/>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="107" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="62">
@@ -9882,7 +9930,7 @@
       <c r="JA15" s="47"/>
     </row>
     <row r="16" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="24">
         <v>0</v>
       </c>
@@ -9896,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="I16" s="106"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="63">
         <v>2</v>
       </c>
@@ -10243,7 +10291,7 @@
       <c r="JA16" s="47"/>
     </row>
     <row r="17" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="24">
         <v>0</v>
       </c>
@@ -10257,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="I17" s="107"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="14">
         <v>3</v>
       </c>
@@ -10604,7 +10652,7 @@
       <c r="JA17" s="47"/>
     </row>
     <row r="18" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="24">
         <v>0</v>
       </c>
@@ -10873,7 +10921,7 @@
       <c r="JA18" s="47"/>
     </row>
     <row r="19" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="24">
         <v>0</v>
       </c>
@@ -11204,7 +11252,7 @@
       <c r="JA19" s="47"/>
     </row>
     <row r="20" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="29">
@@ -11220,7 +11268,7 @@
         <v>0.52052525645484882</v>
       </c>
       <c r="G20" s="72"/>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="107" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="3">
@@ -11569,7 +11617,7 @@
       <c r="JA20" s="47"/>
     </row>
     <row r="21" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="24">
         <v>0.21492827974101786</v>
       </c>
@@ -11583,7 +11631,7 @@
         <v>2.0329100049058124</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="I21" s="106"/>
+      <c r="I21" s="108"/>
       <c r="J21" s="3">
         <v>2</v>
       </c>
@@ -11930,7 +11978,7 @@
       <c r="JA21" s="47"/>
     </row>
     <row r="22" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="24">
         <v>0.52154484098435394</v>
       </c>
@@ -11944,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="I22" s="106"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="3">
         <v>3</v>
       </c>
@@ -12291,7 +12339,7 @@
       <c r="JA22" s="47"/>
     </row>
     <row r="23" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="24">
         <v>0</v>
       </c>
@@ -12305,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="33"/>
-      <c r="I23" s="107"/>
+      <c r="I23" s="109"/>
       <c r="J23" s="3">
         <v>4</v>
       </c>
@@ -12652,7 +12700,7 @@
       <c r="JA23" s="47"/>
     </row>
     <row r="24" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
@@ -12668,10 +12716,10 @@
       <c r="G24" s="31">
         <v>5.8116964171457868</v>
       </c>
-      <c r="I24" s="108" t="s">
+      <c r="I24" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="109"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="81">
         <f>SUMXMY2(K12:N12,K20:K23)</f>
         <v>6.0194062898258106E-2</v>
@@ -12985,7 +13033,7 @@
       <c r="JA24" s="47"/>
     </row>
     <row r="25" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="105" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="29">
@@ -13256,7 +13304,7 @@
       <c r="JA25" s="47"/>
     </row>
     <row r="26" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="24">
         <v>0</v>
       </c>
@@ -13492,7 +13540,7 @@
       <c r="JA26" s="47"/>
     </row>
     <row r="27" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="24">
         <v>0</v>
       </c>
@@ -13728,7 +13776,7 @@
       <c r="JA27" s="47"/>
     </row>
     <row r="28" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="24">
         <v>0</v>
       </c>
@@ -13964,7 +14012,7 @@
       <c r="JA28" s="47"/>
     </row>
     <row r="29" spans="2:261" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="110"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="24">
         <v>0</v>
       </c>
@@ -15430,10 +15478,10 @@
       <c r="F37" s="47"/>
       <c r="G37" s="48"/>
       <c r="H37" s="47"/>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="112"/>
+      <c r="J37" s="114"/>
       <c r="K37" s="71" t="str">
         <f ca="1">OFFSET($C$12,0,K12+2*L12+3*M12+4*N12)</f>
         <v>A</v>
@@ -15785,10 +15833,10 @@
       <c r="F38" s="47"/>
       <c r="G38" s="48"/>
       <c r="H38" s="47"/>
-      <c r="I38" s="111" t="s">
+      <c r="I38" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="112"/>
+      <c r="J38" s="114"/>
       <c r="K38" s="71" t="str">
         <f ca="1">OFFSET($C$12,0,MATCH(MAX(K20:K23),K20:K23,0))</f>
         <v>A</v>
@@ -16140,10 +16188,10 @@
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="47"/>
-      <c r="I39" s="111" t="s">
+      <c r="I39" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="112"/>
+      <c r="J39" s="114"/>
       <c r="K39" s="71" t="str">
         <f ca="1">IF(K37=K38,"〇","×")</f>
         <v>〇</v>
@@ -18752,6 +18800,10 @@
     <mergeCell ref="BD1:BH1"/>
     <mergeCell ref="BI1:BM1"/>
     <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DG1:DK1"/>
+    <mergeCell ref="DL1:DP1"/>
+    <mergeCell ref="CR1:CV1"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B15:B19"/>
@@ -18768,10 +18820,6 @@
     <mergeCell ref="EF1:EJ1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="DQ1:DU1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DG1:DK1"/>
-    <mergeCell ref="DL1:DP1"/>
-    <mergeCell ref="CR1:CV1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
